--- a/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LargeMP" sheetId="3" r:id="rId2"/>
     <sheet name="MPOLD_ONLY" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -288,7 +288,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -384,6 +383,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C03D-4D8E-8923-2D0B740A58AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -444,6 +448,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C03D-4D8E-8923-2D0B740A58AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -504,6 +513,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C03D-4D8E-8923-2D0B740A58AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -564,6 +578,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C03D-4D8E-8923-2D0B740A58AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -695,7 +714,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -763,7 +781,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -844,6 +862,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADC2-4352-8C33-E590F60AEB82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -906,6 +929,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADC2-4352-8C33-E590F60AEB82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -968,6 +996,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADC2-4352-8C33-E590F60AEB82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1080,7 +1113,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1155,7 +1187,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1223,7 +1254,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1304,6 +1335,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82E2-4F39-AD2E-96A7D891090B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1366,6 +1402,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82E2-4F39-AD2E-96A7D891090B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1428,6 +1469,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-82E2-4F39-AD2E-96A7D891090B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1540,7 +1586,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1615,7 +1660,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1677,13 +1721,13 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1731,7 +1775,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1989,6 +2032,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D646-4648-86AF-01917CAF4AFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2211,6 +2259,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D646-4648-86AF-01917CAF4AFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2433,6 +2486,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D646-4648-86AF-01917CAF4AFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2655,6 +2713,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D646-4648-86AF-01917CAF4AFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2786,7 +2849,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2854,7 +2916,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2912,7 +2974,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3170,6 +3231,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E3C-429D-8477-1F8337DFF548}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3392,6 +3458,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E3C-429D-8477-1F8337DFF548}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3614,6 +3685,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E3C-429D-8477-1F8337DFF548}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3836,6 +3912,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E3C-429D-8477-1F8337DFF548}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3967,7 +4048,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4035,7 +4115,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4345,6 +4425,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A19C-49E8-BE0C-7E02EFE7C406}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4567,6 +4652,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A19C-49E8-BE0C-7E02EFE7C406}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4789,6 +4879,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A19C-49E8-BE0C-7E02EFE7C406}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5011,6 +5106,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A19C-49E8-BE0C-7E02EFE7C406}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5209,7 +5309,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5519,6 +5619,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F584-4822-A095-729DE0E626CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5741,6 +5846,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F584-4822-A095-729DE0E626CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5963,6 +6073,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F584-4822-A095-729DE0E626CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6185,6 +6300,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F584-4822-A095-729DE0E626CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10458,6 +10578,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10493,6 +10630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10651,12 +10805,12 @@
       <selection activeCell="R1" sqref="R1:S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10688,7 +10842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -10745,7 +10899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10802,7 +10956,7 @@
       </c>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10859,7 +11013,7 @@
       </c>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -10916,7 +11070,7 @@
       </c>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -10973,7 +11127,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -11030,7 +11184,7 @@
       </c>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11087,7 +11241,7 @@
       </c>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -11144,7 +11298,7 @@
       </c>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -11201,7 +11355,7 @@
       </c>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -11258,7 +11412,7 @@
       </c>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -11315,7 +11469,7 @@
       </c>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -11372,7 +11526,7 @@
       </c>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11583,7 @@
       </c>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -11486,7 +11640,7 @@
       </c>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -11543,7 +11697,7 @@
       </c>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -11600,7 +11754,7 @@
       </c>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -11657,7 +11811,7 @@
       </c>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -11714,7 +11868,7 @@
       </c>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11771,7 +11925,7 @@
       </c>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -11828,7 +11982,7 @@
       </c>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -11885,7 +12039,7 @@
       </c>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -11942,7 +12096,7 @@
       </c>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -11999,7 +12153,7 @@
       </c>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -12056,7 +12210,7 @@
       </c>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -12113,7 +12267,7 @@
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -12170,7 +12324,7 @@
       </c>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -12227,7 +12381,7 @@
       </c>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -12284,7 +12438,7 @@
       </c>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -12357,7 +12511,7 @@
         <v>46.531999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -12430,7 +12584,7 @@
         <v>40.6875</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -12503,7 +12657,7 @@
         <v>43.934444444444445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
@@ -12515,7 +12669,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -12535,7 +12689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -12567,7 +12721,7 @@
         <v>1.0351112347521139</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -12599,7 +12753,7 @@
         <v>0.96437453107744686</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -12631,7 +12785,7 @@
         <v>0.95763047638316379</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -12687,12 +12841,12 @@
       <selection activeCell="F42" sqref="F42:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12712,7 +12866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -12745,7 +12899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -12778,7 +12932,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -12811,7 +12965,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -12844,7 +12998,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -12877,7 +13031,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -12910,7 +13064,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -12943,7 +13097,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -12976,7 +13130,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -13009,7 +13163,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -13042,7 +13196,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -13075,7 +13229,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -13108,7 +13262,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -13141,7 +13295,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -13174,7 +13328,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -13207,7 +13361,7 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13240,7 +13394,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -13273,7 +13427,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -13306,7 +13460,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13339,7 +13493,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -13372,7 +13526,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -13405,7 +13559,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -13438,7 +13592,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -13471,7 +13625,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -13504,7 +13658,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -13537,7 +13691,7 @@
       </c>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -13570,7 +13724,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -13603,7 +13757,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -13636,7 +13790,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -13677,7 +13831,7 @@
         <v>46.531999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -13718,7 +13872,7 @@
         <v>40.6875</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -13759,7 +13913,7 @@
         <v>43.934444444444445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
@@ -13771,7 +13925,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -13791,7 +13945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -13823,7 +13977,7 @@
         <v>0.92745083162624431</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -13855,7 +14009,7 @@
         <v>0.92063933638501816</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="s">
         <v>50</v>
       </c>
@@ -13867,7 +14021,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -13887,7 +14041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -13919,7 +14073,7 @@
         <v>0.90468208258116278</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -13951,7 +14105,7 @@
         <v>0.95999999999999985</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -13985,13 +14139,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="G41:I41"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="K2:K29"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="G41:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14007,9 +14161,9 @@
       <selection activeCell="AJ33" sqref="AF3:AJ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -14054,7 +14208,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14122,7 +14276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -14213,7 +14367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -14330,7 +14484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -14447,7 +14601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -14564,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -14681,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -14798,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -14915,7 +15069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -15032,7 +15186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -15149,7 +15303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -15266,7 +15420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -15383,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -15500,7 +15654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -15617,7 +15771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -15734,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -15851,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -15968,7 +16122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -16085,7 +16239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -16202,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -16319,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -16436,7 +16590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -16553,7 +16707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -16670,7 +16824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -16787,7 +16941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -16904,7 +17058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -17021,7 +17175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -17138,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -17255,7 +17409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -17372,7 +17526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -17495,7 +17649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -17618,7 +17772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -17743,17 +17897,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:G30"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="R1:W1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
@@ -1046,10 +1046,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1096,10 +1093,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1108,7 +1102,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>AMMAT/AMMAT(No Cache)</a:t>
+                  <a:t>AMMAT/AMMAT (No Cache)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1128,10 +1122,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1160,10 +1151,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1202,10 +1190,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1240,7 +1225,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr b="1"/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1248,7 +1237,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1519,10 +1508,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1569,10 +1555,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1581,7 +1564,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>AMMAT/AMMAT(TLM)</a:t>
+                  <a:t>AMMAT/AMMAT (TLM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1601,10 +1584,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1633,10 +1613,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1675,10 +1652,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1713,7 +1687,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr b="1"/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -14139,13 +14117,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K2:K29"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K2:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -17897,17 +17875,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:G30"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="R1:W1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
@@ -16,6 +16,9 @@
     <sheet name="LargeMP" sheetId="3" r:id="rId2"/>
     <sheet name="MPOLD_ONLY" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -10295,15 +10298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10326,8 +10329,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -10478,6 +10481,227 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NUM_MEA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="42">
+          <cell r="B42">
+            <v>16</v>
+          </cell>
+          <cell r="K42">
+            <v>1</v>
+          </cell>
+          <cell r="S42">
+            <v>5.5293333333333345</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>32</v>
+          </cell>
+          <cell r="K43">
+            <v>0.97144305784988805</v>
+          </cell>
+          <cell r="S43">
+            <v>9.8260000000000005</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>64</v>
+          </cell>
+          <cell r="K44">
+            <v>0.94605910927201053</v>
+          </cell>
+          <cell r="S44">
+            <v>16.27333333333333</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>AVG HG</v>
+          </cell>
+          <cell r="B45">
+            <v>128</v>
+          </cell>
+          <cell r="K45">
+            <v>0.93789764642384021</v>
+          </cell>
+          <cell r="S45">
+            <v>24.355999999999995</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>256</v>
+          </cell>
+          <cell r="K46">
+            <v>0.93582048052861433</v>
+          </cell>
+          <cell r="S46">
+            <v>31.40333333333334</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>512</v>
+          </cell>
+          <cell r="K47">
+            <v>0.95070411017157086</v>
+          </cell>
+          <cell r="S47">
+            <v>39.788000000000004</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>16</v>
+          </cell>
+          <cell r="L49">
+            <v>1</v>
+          </cell>
+          <cell r="T49">
+            <v>7.3083333333333336</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>32</v>
+          </cell>
+          <cell r="L50">
+            <v>0.96679464326523112</v>
+          </cell>
+          <cell r="T50">
+            <v>13.094999999999999</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>64</v>
+          </cell>
+          <cell r="L51">
+            <v>0.94334750217103147</v>
+          </cell>
+          <cell r="T51">
+            <v>22.46083333333333</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>AVG MIX</v>
+          </cell>
+          <cell r="B52">
+            <v>128</v>
+          </cell>
+          <cell r="L52">
+            <v>0.93841126194067359</v>
+          </cell>
+          <cell r="T52">
+            <v>36.655833333333341</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>256</v>
+          </cell>
+          <cell r="L53">
+            <v>0.94357603181132599</v>
+          </cell>
+          <cell r="T53">
+            <v>52.180833333333339</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>512</v>
+          </cell>
+          <cell r="L54">
+            <v>0.9646921705745235</v>
+          </cell>
+          <cell r="T54">
+            <v>72.006666666666661</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>16</v>
+          </cell>
+          <cell r="M56">
+            <v>1</v>
+          </cell>
+          <cell r="U56">
+            <v>6.3200000000000012</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>32</v>
+          </cell>
+          <cell r="M57">
+            <v>0.96950399908483431</v>
+          </cell>
+          <cell r="U57">
+            <v>11.27888888888889</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>64</v>
+          </cell>
+          <cell r="M58">
+            <v>0.94492797834107123</v>
+          </cell>
+          <cell r="U58">
+            <v>19.02333333333333</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>AVG ALL</v>
+          </cell>
+          <cell r="B59">
+            <v>128</v>
+          </cell>
+          <cell r="M59">
+            <v>0.93811189811151718</v>
+          </cell>
+          <cell r="U59">
+            <v>29.822592592592596</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>256</v>
+          </cell>
+          <cell r="M60">
+            <v>0.93905566306637855</v>
+          </cell>
+          <cell r="U60">
+            <v>40.637777777777771</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>512</v>
+          </cell>
+          <cell r="M61">
+            <v>0.95653914717966837</v>
+          </cell>
+          <cell r="U61">
+            <v>54.107407407407393</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12816,7 +13040,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:I45"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17875,17 +18099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:G30"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="R1:W1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,10 +16,7 @@
     <sheet name="LargeMP" sheetId="3" r:id="rId2"/>
     <sheet name="MPOLD_ONLY" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="52">
   <si>
     <t>BENCH</t>
   </si>
@@ -192,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +274,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -386,7 +383,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -451,7 +448,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -516,7 +513,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -581,7 +578,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -597,11 +594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="379268648"/>
-        <c:axId val="379267864"/>
+        <c:axId val="387167632"/>
+        <c:axId val="387168024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379268648"/>
+        <c:axId val="387167632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379267864"/>
+        <c:crossAx val="387168024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -652,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379267864"/>
+        <c:axId val="387168024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379268648"/>
+        <c:crossAx val="387167632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -784,7 +781,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -809,7 +806,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LargeMP!$A$43</c:f>
+              <c:f>LargeMP!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -849,23 +846,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LargeMP!$B$43:$D$43</c:f>
+              <c:f>LargeMP!$B$47:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1455938697318007</c:v>
+                  <c:v>1.1463561391710619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1291961053112587</c:v>
+                  <c:v>1.1300569850989279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1097929628457941</c:v>
+                  <c:v>1.1102891728312041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ADC2-4352-8C33-E590F60AEB82}"/>
             </c:ext>
@@ -876,7 +873,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>LargeMP!$A$44</c:f>
+              <c:f>LargeMP!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -916,23 +913,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LargeMP!$B$44:$D$44</c:f>
+              <c:f>LargeMP!$B$48:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2237362309471123</c:v>
+                  <c:v>1.1910175404357055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1888007558992468</c:v>
+                  <c:v>1.156644141396892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1654772857249422</c:v>
+                  <c:v>1.13368788270596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ADC2-4352-8C33-E590F60AEB82}"/>
             </c:ext>
@@ -943,7 +940,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>LargeMP!$A$45</c:f>
+              <c:f>LargeMP!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -983,23 +980,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LargeMP!$B$45:$D$45</c:f>
+              <c:f>LargeMP!$B$49:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1779539720949392</c:v>
+                  <c:v>1.1651332861523951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1538794213046391</c:v>
+                  <c:v>1.1412351149266133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1328528033774392</c:v>
+                  <c:v>1.1201267731314812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ADC2-4352-8C33-E590F60AEB82}"/>
             </c:ext>
@@ -1015,11 +1012,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="434735936"/>
-        <c:axId val="434734760"/>
+        <c:axId val="387170376"/>
+        <c:axId val="387171552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434735936"/>
+        <c:axId val="387170376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434734760"/>
+        <c:crossAx val="387171552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434734760"/>
+        <c:axId val="387171552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,6 +1107,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1164,7 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434735936"/>
+        <c:crossAx val="387170376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,6 +1176,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1246,7 +1245,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1271,7 +1270,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LargeMP!$F$43</c:f>
+              <c:f>LargeMP!$F$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1311,23 +1310,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LargeMP!$G$43:$I$43</c:f>
+              <c:f>LargeMP!$G$47:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.93386629989397973</c:v>
+                  <c:v>0.92804951431273131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92049915470357324</c:v>
+                  <c:v>0.91485429381930738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90468208258116278</c:v>
+                  <c:v>0.89885096994183233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-82E2-4F39-AD2E-96A7D891090B}"/>
             </c:ext>
@@ -1338,7 +1337,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>LargeMP!$F$44</c:f>
+              <c:f>LargeMP!$F$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1378,23 +1377,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LargeMP!$G$44:$I$44</c:f>
+              <c:f>LargeMP!$G$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0079877112135178</c:v>
+                  <c:v>0.99991807475678451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97921146953405025</c:v>
+                  <c:v>0.97105990783410134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95999999999999985</c:v>
+                  <c:v>0.95178699436763958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-82E2-4F39-AD2E-96A7D891090B}"/>
             </c:ext>
@@ -1405,7 +1404,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>LargeMP!$F$45</c:f>
+              <c:f>LargeMP!$F$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1445,23 +1444,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LargeMP!$G$45:$I$45</c:f>
+              <c:f>LargeMP!$G$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.96437453107744686</c:v>
+                  <c:v>0.95763047638316379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94466503123340317</c:v>
+                  <c:v>0.93798841708606262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92745083162624431</c:v>
+                  <c:v>0.92063933638501816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-82E2-4F39-AD2E-96A7D891090B}"/>
             </c:ext>
@@ -1477,11 +1476,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="428823232"/>
-        <c:axId val="428823624"/>
+        <c:axId val="386577832"/>
+        <c:axId val="386578224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="428823232"/>
+        <c:axId val="386577832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428823624"/>
+        <c:crossAx val="386578224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1529,7 +1528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428823624"/>
+        <c:axId val="386578224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,6 +1571,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1626,7 +1626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428823232"/>
+        <c:crossAx val="386577832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,6 +1640,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1708,7 +1709,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2013,7 +2014,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2240,7 +2241,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2467,7 +2468,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2694,7 +2695,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2710,11 +2711,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="379265904"/>
-        <c:axId val="379266688"/>
+        <c:axId val="386941544"/>
+        <c:axId val="386947816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379265904"/>
+        <c:axId val="386941544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379266688"/>
+        <c:crossAx val="386947816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2765,7 +2766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379266688"/>
+        <c:axId val="386947816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379265904"/>
+        <c:crossAx val="386941544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2897,7 +2898,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3212,7 +3213,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -3439,7 +3440,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -3666,7 +3667,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -3893,7 +3894,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -3909,11 +3910,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="379267080"/>
-        <c:axId val="379268256"/>
+        <c:axId val="386946640"/>
+        <c:axId val="386941936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379267080"/>
+        <c:axId val="386946640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +3957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379268256"/>
+        <c:crossAx val="386941936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3964,7 +3965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379268256"/>
+        <c:axId val="386941936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379267080"/>
+        <c:crossAx val="386946640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,7 +4097,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4406,7 +4407,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -4633,7 +4634,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -4860,7 +4861,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -5087,7 +5088,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -5103,11 +5104,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="218502560"/>
-        <c:axId val="428824800"/>
+        <c:axId val="386946248"/>
+        <c:axId val="386942328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218502560"/>
+        <c:axId val="386946248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5150,7 +5151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428824800"/>
+        <c:crossAx val="386942328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5158,7 +5159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428824800"/>
+        <c:axId val="386942328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5209,7 +5210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218502560"/>
+        <c:crossAx val="386946248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5290,7 +5291,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5600,7 +5601,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -5827,7 +5828,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -6054,7 +6055,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -6281,7 +6282,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -6297,11 +6298,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="428824408"/>
-        <c:axId val="428829896"/>
+        <c:axId val="386942720"/>
+        <c:axId val="386943504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="428824408"/>
+        <c:axId val="386942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6344,7 +6345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428829896"/>
+        <c:crossAx val="386943504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6352,7 +6353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428829896"/>
+        <c:axId val="386943504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,7 +6404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428824408"/>
+        <c:crossAx val="386942720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10297,16 +10298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10327,16 +10328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10483,227 +10484,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="NUM_MEA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="42">
-          <cell r="B42">
-            <v>16</v>
-          </cell>
-          <cell r="K42">
-            <v>1</v>
-          </cell>
-          <cell r="S42">
-            <v>5.5293333333333345</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>32</v>
-          </cell>
-          <cell r="K43">
-            <v>0.97144305784988805</v>
-          </cell>
-          <cell r="S43">
-            <v>9.8260000000000005</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>64</v>
-          </cell>
-          <cell r="K44">
-            <v>0.94605910927201053</v>
-          </cell>
-          <cell r="S44">
-            <v>16.27333333333333</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>AVG HG</v>
-          </cell>
-          <cell r="B45">
-            <v>128</v>
-          </cell>
-          <cell r="K45">
-            <v>0.93789764642384021</v>
-          </cell>
-          <cell r="S45">
-            <v>24.355999999999995</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>256</v>
-          </cell>
-          <cell r="K46">
-            <v>0.93582048052861433</v>
-          </cell>
-          <cell r="S46">
-            <v>31.40333333333334</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>512</v>
-          </cell>
-          <cell r="K47">
-            <v>0.95070411017157086</v>
-          </cell>
-          <cell r="S47">
-            <v>39.788000000000004</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>16</v>
-          </cell>
-          <cell r="L49">
-            <v>1</v>
-          </cell>
-          <cell r="T49">
-            <v>7.3083333333333336</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>32</v>
-          </cell>
-          <cell r="L50">
-            <v>0.96679464326523112</v>
-          </cell>
-          <cell r="T50">
-            <v>13.094999999999999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>64</v>
-          </cell>
-          <cell r="L51">
-            <v>0.94334750217103147</v>
-          </cell>
-          <cell r="T51">
-            <v>22.46083333333333</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>AVG MIX</v>
-          </cell>
-          <cell r="B52">
-            <v>128</v>
-          </cell>
-          <cell r="L52">
-            <v>0.93841126194067359</v>
-          </cell>
-          <cell r="T52">
-            <v>36.655833333333341</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>256</v>
-          </cell>
-          <cell r="L53">
-            <v>0.94357603181132599</v>
-          </cell>
-          <cell r="T53">
-            <v>52.180833333333339</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>512</v>
-          </cell>
-          <cell r="L54">
-            <v>0.9646921705745235</v>
-          </cell>
-          <cell r="T54">
-            <v>72.006666666666661</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>16</v>
-          </cell>
-          <cell r="M56">
-            <v>1</v>
-          </cell>
-          <cell r="U56">
-            <v>6.3200000000000012</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>32</v>
-          </cell>
-          <cell r="M57">
-            <v>0.96950399908483431</v>
-          </cell>
-          <cell r="U57">
-            <v>11.27888888888889</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>64</v>
-          </cell>
-          <cell r="M58">
-            <v>0.94492797834107123</v>
-          </cell>
-          <cell r="U58">
-            <v>19.02333333333333</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>AVG ALL</v>
-          </cell>
-          <cell r="B59">
-            <v>128</v>
-          </cell>
-          <cell r="M59">
-            <v>0.93811189811151718</v>
-          </cell>
-          <cell r="U59">
-            <v>29.822592592592596</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>256</v>
-          </cell>
-          <cell r="M60">
-            <v>0.93905566306637855</v>
-          </cell>
-          <cell r="U60">
-            <v>40.637777777777771</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>512</v>
-          </cell>
-          <cell r="M61">
-            <v>0.95653914717966837</v>
-          </cell>
-          <cell r="U61">
-            <v>54.107407407407393</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10780,23 +10560,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10832,23 +10595,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11007,12 +10753,12 @@
       <selection activeCell="R1" sqref="R1:S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11044,7 +10790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -11101,7 +10847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -11158,7 +10904,7 @@
       </c>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -11215,7 +10961,7 @@
       </c>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -11272,7 +11018,7 @@
       </c>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -11329,7 +11075,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -11386,7 +11132,7 @@
       </c>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11443,7 +11189,7 @@
       </c>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -11500,7 +11246,7 @@
       </c>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -11557,7 +11303,7 @@
       </c>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -11614,7 +11360,7 @@
       </c>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -11671,7 +11417,7 @@
       </c>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -11728,7 +11474,7 @@
       </c>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -11785,7 +11531,7 @@
       </c>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -11842,7 +11588,7 @@
       </c>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -11899,7 +11645,7 @@
       </c>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -11956,7 +11702,7 @@
       </c>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -12013,7 +11759,7 @@
       </c>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -12070,7 +11816,7 @@
       </c>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -12127,7 +11873,7 @@
       </c>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -12184,7 +11930,7 @@
       </c>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -12241,7 +11987,7 @@
       </c>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -12298,7 +12044,7 @@
       </c>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -12355,7 +12101,7 @@
       </c>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -12412,7 +12158,7 @@
       </c>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -12469,7 +12215,7 @@
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -12526,7 +12272,7 @@
       </c>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -12583,7 +12329,7 @@
       </c>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -12640,7 +12386,7 @@
       </c>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -12713,7 +12459,7 @@
         <v>46.531999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -12786,7 +12532,7 @@
         <v>40.6875</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -12859,7 +12605,7 @@
         <v>43.934444444444445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
@@ -12871,7 +12617,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -12891,7 +12637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -12923,7 +12669,7 @@
         <v>1.0351112347521139</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -12955,7 +12701,7 @@
         <v>0.96437453107744686</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -12987,7 +12733,7 @@
         <v>0.95763047638316379</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -13037,18 +12783,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13068,7 +12814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -13101,7 +12847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -13134,7 +12880,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -13167,7 +12913,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -13200,7 +12946,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -13233,7 +12979,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -13266,7 +13012,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -13299,7 +13045,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -13332,7 +13078,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -13365,7 +13111,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -13398,7 +13144,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -13431,7 +13177,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -13464,7 +13210,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -13497,7 +13243,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -13530,7 +13276,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -13563,7 +13309,7 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13596,7 +13342,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -13629,7 +13375,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -13662,7 +13408,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13695,7 +13441,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -13728,7 +13474,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -13761,7 +13507,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -13794,7 +13540,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -13827,7 +13573,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -13860,7 +13606,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -13893,7 +13639,7 @@
       </c>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -13926,7 +13672,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -13959,7 +13705,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -13992,7 +13738,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -14033,7 +13779,7 @@
         <v>46.531999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -14074,7 +13820,7 @@
         <v>40.6875</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -14115,7 +13861,7 @@
         <v>43.934444444444445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
@@ -14127,7 +13873,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -14147,7 +13893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -14179,7 +13925,7 @@
         <v>0.92745083162624431</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -14211,7 +13957,7 @@
         <v>0.92063933638501816</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>50</v>
       </c>
@@ -14223,7 +13969,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -14243,7 +13989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -14275,7 +14021,7 @@
         <v>0.90468208258116278</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -14307,7 +14053,7 @@
         <v>0.95999999999999985</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -14339,8 +14085,119 @@
         <v>0.92745083162624431</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <f>G30/$F30</f>
+        <v>1.1463561391710619</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:D47" si="17">H30/$F30</f>
+        <v>1.1300569850989279</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="17"/>
+        <v>1.1102891728312041</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47">
+        <f>G30/$J30</f>
+        <v>0.92804951431273131</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:I47" si="18">H30/$J30</f>
+        <v>0.91485429381930738</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="18"/>
+        <v>0.89885096994183233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:B49" si="19">G31/$F31</f>
+        <v>1.1910175404357055</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:C49" si="20">H31/$F31</f>
+        <v>1.156644141396892</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:D49" si="21">I31/$F31</f>
+        <v>1.13368788270596</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:I48" si="22">G31/$J31</f>
+        <v>0.99991807475678451</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="22"/>
+        <v>0.97105990783410134</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="22"/>
+        <v>0.95178699436763958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="19"/>
+        <v>1.1651332861523951</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="20"/>
+        <v>1.1412351149266133</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="21"/>
+        <v>1.1201267731314812</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:I49" si="23">G32/$J32</f>
+        <v>0.95763047638316379</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="23"/>
+        <v>0.93798841708606262</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="23"/>
+        <v>0.92063933638501816</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="K2:K29"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="G41:I41"/>
@@ -14363,9 +14220,9 @@
       <selection activeCell="AJ33" sqref="AF3:AJ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -14410,7 +14267,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14478,7 +14335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -14569,7 +14426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -14686,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -14803,7 +14660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -14920,7 +14777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -15037,7 +14894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -15154,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -15271,7 +15128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -15388,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -15505,7 +15362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -15739,7 +15596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -15856,7 +15713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -15973,7 +15830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -16090,7 +15947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -16207,7 +16064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -16324,7 +16181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -16441,7 +16298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -16558,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -16675,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -16792,7 +16649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -16909,7 +16766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -17026,7 +16883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -17143,7 +17000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -17260,7 +17117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -17377,7 +17234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -17494,7 +17351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -17611,7 +17468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -17728,7 +17585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -17851,7 +17708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -17974,7 +17831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -18099,17 +17956,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:G30"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="R1:W1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMP_CACHE_SIZE.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="3270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="3270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="LargeMP" sheetId="3" r:id="rId2"/>
     <sheet name="MPOLD_ONLY" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1 with LargeMP" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="52">
   <si>
     <t>BENCH</t>
   </si>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +275,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -288,6 +289,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg AMMAT from all experiments</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normalized to TLM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -383,7 +418,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -448,7 +483,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -513,7 +548,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -578,7 +613,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C03D-4D8E-8923-2D0B740A58AC}"/>
             </c:ext>
@@ -780,8 +815,1004 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg AMMAT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> from all workloads</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Normalized to each mechanism's respective AMMAT without a cache</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPOLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPNEW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with LargeMP'!$B$37:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1853988350532847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1779539720949392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1651332861523951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94663445310973338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-114C-4038-ACA3-D79A862D7A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPOLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPNEW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with LargeMP'!$C$37:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1649560803850694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1538794213046391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1412351149266133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95415785827219224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-114C-4038-ACA3-D79A862D7A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPOLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPNEW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with LargeMP'!$D$37:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1498511040773138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1328528033774392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1201267731314812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96097955268160073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-114C-4038-ACA3-D79A862D7A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="334768016"/>
+        <c:axId val="334769000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="334768016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334769000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="334769000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334768016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg AMMAT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> from all workloads</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Normalized to each mechanism's respective AMMAT without a cache</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPOLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPNEW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1853988350532847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2142408484786082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2020985261084958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94663445310973338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF52-4F73-92DA-F61BC56A3EC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPOLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPNEW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1649560803850694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1927096740977194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.180056822261198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95415785827219224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF52-4F73-92DA-F61BC56A3EC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPOLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPNEW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1498511040773138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1779539720949392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1651332861523951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96097955268160073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF52-4F73-92DA-F61BC56A3EC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="334768016"/>
+        <c:axId val="334769000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="334768016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334769000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="334769000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334768016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -862,7 +1893,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ADC2-4352-8C33-E590F60AEB82}"/>
             </c:ext>
@@ -929,7 +1960,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ADC2-4352-8C33-E590F60AEB82}"/>
             </c:ext>
@@ -996,7 +2027,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ADC2-4352-8C33-E590F60AEB82}"/>
             </c:ext>
@@ -1107,7 +2138,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1176,7 +2206,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1244,8 +2273,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1326,7 +2355,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-82E2-4F39-AD2E-96A7D891090B}"/>
             </c:ext>
@@ -1393,7 +2422,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-82E2-4F39-AD2E-96A7D891090B}"/>
             </c:ext>
@@ -1460,7 +2489,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-82E2-4F39-AD2E-96A7D891090B}"/>
             </c:ext>
@@ -1571,7 +2600,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1640,7 +2668,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1708,8 +2735,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2014,7 +3041,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2241,7 +3268,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2468,7 +3495,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2695,7 +3722,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D646-4648-86AF-01917CAF4AFE}"/>
             </c:ext>
@@ -2897,8 +3924,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3213,7 +4240,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -3440,7 +4467,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -3667,7 +4694,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -3894,7 +4921,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9E3C-429D-8477-1F8337DFF548}"/>
             </c:ext>
@@ -4096,8 +5123,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4407,7 +5434,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -4634,7 +5661,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -4861,7 +5888,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -5088,7 +6115,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A19C-49E8-BE0C-7E02EFE7C406}"/>
             </c:ext>
@@ -5290,8 +6317,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5601,7 +6628,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -5828,7 +6855,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -6055,7 +7082,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -6282,7 +7309,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F584-4822-A095-729DE0E626CF}"/>
             </c:ext>
@@ -6484,6 +7511,547 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg AMMAT from all experiments</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normalized to TLM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$G$36:$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32kB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with LargeMP'!$G$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0671117742764897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0487089350294632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0351112347521139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8997-4849-8938-BC95A8B80B38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$F$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPOLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$G$36:$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32kB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with LargeMP'!$G$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96437453107744686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94466503123340317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92745083162624431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8997-4849-8938-BC95A8B80B38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPNEW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$G$36:$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32kB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with LargeMP'!$G$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95763047638316379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93798841708606262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92063933638501816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8997-4849-8938-BC95A8B80B38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with LargeMP'!$G$36:$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16kB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32kB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64kB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with LargeMP'!$G$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89842610623572172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90556637414329388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91204066664980632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8997-4849-8938-BC95A8B80B38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="387167632"/>
+        <c:axId val="387168024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387167632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387168024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387168024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387167632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6524,61 +8092,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6614,6 +8128,100 @@
   <cs:variation>
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -6738,6 +8346,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7241,7 +8929,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7744,7 +9432,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8247,7 +9935,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8750,7 +10438,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9253,7 +10941,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9756,7 +11444,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10259,20 +11947,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10286,6 +13483,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145255</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621505</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10484,6 +13711,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145255</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621505</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10560,6 +13856,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10595,6 +13908,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10749,16 +14079,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10790,7 +14120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -10847,7 +14177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10904,7 +14234,7 @@
       </c>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10961,7 +14291,7 @@
       </c>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -11018,7 +14348,7 @@
       </c>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -11075,7 +14405,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -11132,7 +14462,7 @@
       </c>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11189,7 +14519,7 @@
       </c>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -11246,7 +14576,7 @@
       </c>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -11303,7 +14633,7 @@
       </c>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -11360,7 +14690,7 @@
       </c>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -11417,7 +14747,7 @@
       </c>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -11474,7 +14804,7 @@
       </c>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -11531,7 +14861,7 @@
       </c>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -11588,7 +14918,7 @@
       </c>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -11645,7 +14975,7 @@
       </c>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -11702,7 +15032,7 @@
       </c>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -11759,7 +15089,7 @@
       </c>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -11816,7 +15146,7 @@
       </c>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11873,7 +15203,7 @@
       </c>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -11930,7 +15260,7 @@
       </c>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -11987,7 +15317,7 @@
       </c>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -12044,7 +15374,7 @@
       </c>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -12101,7 +15431,7 @@
       </c>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -12158,7 +15488,7 @@
       </c>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -12215,7 +15545,7 @@
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -12272,7 +15602,7 @@
       </c>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -12329,7 +15659,7 @@
       </c>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -12386,7 +15716,7 @@
       </c>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -12459,7 +15789,7 @@
         <v>46.531999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -12532,7 +15862,7 @@
         <v>40.6875</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -12605,7 +15935,7 @@
         <v>43.934444444444445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
@@ -12617,7 +15947,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -12637,21 +15967,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <f>C32/$B32</f>
-        <v>1.2142408484786082</v>
+        <f>K32/$J32</f>
+        <v>1.1853988350532847</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="3">D32/$B32</f>
-        <v>1.1927096740977194</v>
+        <f>L32/$J32</f>
+        <v>1.1649560803850694</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
-        <v>1.1779539720949392</v>
+        <f>M32/$J32</f>
+        <v>1.1498511040773138</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
@@ -12669,21 +15999,21 @@
         <v>1.0351112347521139</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <f>G32/$F32</f>
-        <v>1.2020985261084958</v>
+        <f>C32/$B32</f>
+        <v>1.2142408484786082</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:D38" si="4">H32/$F32</f>
-        <v>1.180056822261198</v>
+        <f t="shared" ref="C38:D38" si="3">D32/$B32</f>
+        <v>1.1927096740977194</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
-        <v>1.1651332861523951</v>
+        <f t="shared" si="3"/>
+        <v>1.1779539720949392</v>
       </c>
       <c r="F38" t="s">
         <v>1</v>
@@ -12701,21 +16031,21 @@
         <v>0.96437453107744686</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <f>K32/$J32</f>
-        <v>1.1853988350532847</v>
+        <f>G32/$F32</f>
+        <v>1.2020985261084958</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:D39" si="5">L32/$J32</f>
-        <v>1.1649560803850694</v>
+        <f t="shared" ref="C39:D39" si="4">H32/$F32</f>
+        <v>1.180056822261198</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
-        <v>1.1498511040773138</v>
+        <f t="shared" si="4"/>
+        <v>1.1651332861523951</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -12733,7 +16063,7 @@
         <v>0.95763047638316379</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -12742,11 +16072,11 @@
         <v>0.94663445310973338</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D40" si="6">P32/$N32</f>
+        <f t="shared" ref="C40:D40" si="5">P32/$N32</f>
         <v>0.95415785827219224</v>
       </c>
       <c r="D40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.96097955268160073</v>
       </c>
       <c r="F40" t="s">
@@ -12776,7 +16106,7 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12785,16 +16115,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="F3:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12814,7 +16144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -12847,7 +16177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -12880,7 +16210,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -12913,7 +16243,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -12946,7 +16276,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -12979,7 +16309,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -13012,7 +16342,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -13045,7 +16375,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -13078,7 +16408,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -13111,7 +16441,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -13144,7 +16474,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -13177,7 +16507,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -13210,7 +16540,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -13243,7 +16573,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -13276,7 +16606,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -13309,7 +16639,7 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13342,7 +16672,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -13375,7 +16705,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -13408,7 +16738,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13441,7 +16771,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -13474,7 +16804,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -13507,7 +16837,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -13540,7 +16870,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -13573,7 +16903,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -13606,7 +16936,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -13639,7 +16969,7 @@
       </c>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -13672,7 +17002,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -13705,7 +17035,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -13738,7 +17068,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -13779,7 +17109,7 @@
         <v>46.531999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -13820,7 +17150,7 @@
         <v>40.6875</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -13861,7 +17191,7 @@
         <v>43.934444444444445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
@@ -13873,7 +17203,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -13893,7 +17223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -13925,7 +17255,7 @@
         <v>0.92745083162624431</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -13957,7 +17287,7 @@
         <v>0.92063933638501816</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="s">
         <v>50</v>
       </c>
@@ -13969,7 +17299,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -13989,7 +17319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -14021,7 +17351,7 @@
         <v>0.90468208258116278</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -14053,7 +17383,7 @@
         <v>0.95999999999999985</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -14085,7 +17415,7 @@
         <v>0.92745083162624431</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="8" t="s">
         <v>2</v>
@@ -14098,7 +17428,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -14130,7 +17460,7 @@
         <v>0.89885096994183233</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -14162,7 +17492,7 @@
         <v>0.95178699436763958</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -14196,8 +17526,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="K2:K29"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="G41:I41"/>
@@ -14205,9 +17533,11 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -14220,9 +17550,9 @@
       <selection activeCell="AJ33" sqref="AF3:AJ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -14267,7 +17597,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14335,7 +17665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -14426,7 +17756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -14543,7 +17873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -14660,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -14777,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -14894,7 +18224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -15011,7 +18341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -15128,7 +18458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -15245,7 +18575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -15362,7 +18692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -15479,7 +18809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -15596,7 +18926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -15713,7 +19043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -15830,7 +19160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -15947,7 +19277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -16064,7 +19394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -16181,7 +19511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -16298,7 +19628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -16415,7 +19745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -16532,7 +19862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -16649,7 +19979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -16766,7 +20096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -16883,7 +20213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -17000,7 +20330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -17117,7 +20447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -17234,7 +20564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -17351,7 +20681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -17468,7 +20798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -17585,7 +20915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -17708,7 +21038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -17831,7 +21161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -17972,4 +21302,2040 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>25.34</v>
+      </c>
+      <c r="C3">
+        <v>35.6</v>
+      </c>
+      <c r="D3">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="E3">
+        <v>34.99</v>
+      </c>
+      <c r="F3" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="G3">
+        <v>35.65</v>
+      </c>
+      <c r="H3">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="I3">
+        <v>35.06</v>
+      </c>
+      <c r="J3" s="5">
+        <v>26.61</v>
+      </c>
+      <c r="K3">
+        <v>35.65</v>
+      </c>
+      <c r="L3">
+        <v>35.53</v>
+      </c>
+      <c r="M3">
+        <v>35.32</v>
+      </c>
+      <c r="N3" s="5">
+        <v>26.25</v>
+      </c>
+      <c r="O3">
+        <v>25.47</v>
+      </c>
+      <c r="P3">
+        <v>25.47</v>
+      </c>
+      <c r="Q3">
+        <v>25.61</v>
+      </c>
+      <c r="R3" s="5">
+        <v>29.81</v>
+      </c>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>49.19</v>
+      </c>
+      <c r="C4">
+        <v>49.8</v>
+      </c>
+      <c r="D4">
+        <v>49.79</v>
+      </c>
+      <c r="E4">
+        <v>49.78</v>
+      </c>
+      <c r="F4" s="6">
+        <v>48.33</v>
+      </c>
+      <c r="G4">
+        <v>48.94</v>
+      </c>
+      <c r="H4">
+        <v>48.94</v>
+      </c>
+      <c r="I4">
+        <v>48.94</v>
+      </c>
+      <c r="J4" s="6">
+        <v>46.06</v>
+      </c>
+      <c r="K4">
+        <v>53.66</v>
+      </c>
+      <c r="L4">
+        <v>53.65</v>
+      </c>
+      <c r="M4">
+        <v>53.63</v>
+      </c>
+      <c r="N4" s="6">
+        <v>44.41</v>
+      </c>
+      <c r="O4">
+        <v>44.46</v>
+      </c>
+      <c r="P4">
+        <v>44.46</v>
+      </c>
+      <c r="Q4">
+        <v>44.46</v>
+      </c>
+      <c r="R4" s="6">
+        <v>45.61</v>
+      </c>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>63.9</v>
+      </c>
+      <c r="C5">
+        <v>75.95</v>
+      </c>
+      <c r="D5">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="E5">
+        <v>70.67</v>
+      </c>
+      <c r="F5" s="6">
+        <v>63.87</v>
+      </c>
+      <c r="G5">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="H5">
+        <v>73.73</v>
+      </c>
+      <c r="I5">
+        <v>70.7</v>
+      </c>
+      <c r="J5" s="6">
+        <v>67.61</v>
+      </c>
+      <c r="K5">
+        <v>81.12</v>
+      </c>
+      <c r="L5">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="M5">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="N5" s="6">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="O5">
+        <v>67.05</v>
+      </c>
+      <c r="P5">
+        <v>67.010000000000005</v>
+      </c>
+      <c r="Q5">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="R5" s="6">
+        <v>83.34</v>
+      </c>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44.92</v>
+      </c>
+      <c r="C6">
+        <v>45.57</v>
+      </c>
+      <c r="D6">
+        <v>45.55</v>
+      </c>
+      <c r="E6">
+        <v>45.53</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45.43</v>
+      </c>
+      <c r="G6">
+        <v>46.06</v>
+      </c>
+      <c r="H6">
+        <v>46.05</v>
+      </c>
+      <c r="I6">
+        <v>46.02</v>
+      </c>
+      <c r="J6" s="6">
+        <v>48.74</v>
+      </c>
+      <c r="K6">
+        <v>55.39</v>
+      </c>
+      <c r="L6">
+        <v>47.83</v>
+      </c>
+      <c r="M6">
+        <v>47.71</v>
+      </c>
+      <c r="N6" s="6">
+        <v>46.9</v>
+      </c>
+      <c r="O6">
+        <v>51.23</v>
+      </c>
+      <c r="P6">
+        <v>51.88</v>
+      </c>
+      <c r="Q6">
+        <v>51.88</v>
+      </c>
+      <c r="R6" s="6">
+        <v>51.87</v>
+      </c>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <v>66.23</v>
+      </c>
+      <c r="C7">
+        <v>72.94</v>
+      </c>
+      <c r="D7">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="E7">
+        <v>70.48</v>
+      </c>
+      <c r="F7" s="6">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="G7">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="H7">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="I7">
+        <v>70.48</v>
+      </c>
+      <c r="J7" s="6">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="K7">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="L7">
+        <v>79.84</v>
+      </c>
+      <c r="M7">
+        <v>78.95</v>
+      </c>
+      <c r="N7" s="6">
+        <v>77.83</v>
+      </c>
+      <c r="O7">
+        <v>70.17</v>
+      </c>
+      <c r="P7">
+        <v>69.89</v>
+      </c>
+      <c r="Q7">
+        <v>69.73</v>
+      </c>
+      <c r="R7" s="6">
+        <v>77.69</v>
+      </c>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15.47</v>
+      </c>
+      <c r="C8">
+        <v>20.7</v>
+      </c>
+      <c r="D8">
+        <v>20.55</v>
+      </c>
+      <c r="E8">
+        <v>20.39</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15.43</v>
+      </c>
+      <c r="G8">
+        <v>20.68</v>
+      </c>
+      <c r="H8">
+        <v>20.52</v>
+      </c>
+      <c r="I8">
+        <v>20.37</v>
+      </c>
+      <c r="J8" s="6">
+        <v>17.89</v>
+      </c>
+      <c r="K8">
+        <v>24.72</v>
+      </c>
+      <c r="L8">
+        <v>24.53</v>
+      </c>
+      <c r="M8">
+        <v>24.35</v>
+      </c>
+      <c r="N8" s="6">
+        <v>22.03</v>
+      </c>
+      <c r="O8">
+        <v>17.55</v>
+      </c>
+      <c r="P8">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="R8" s="6">
+        <v>23.06</v>
+      </c>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>49.28</v>
+      </c>
+      <c r="C9">
+        <v>53.75</v>
+      </c>
+      <c r="D9">
+        <v>53.45</v>
+      </c>
+      <c r="E9">
+        <v>53.28</v>
+      </c>
+      <c r="F9" s="6">
+        <v>47.12</v>
+      </c>
+      <c r="G9">
+        <v>51.97</v>
+      </c>
+      <c r="H9">
+        <v>51.68</v>
+      </c>
+      <c r="I9">
+        <v>51.43</v>
+      </c>
+      <c r="J9" s="6">
+        <v>50.07</v>
+      </c>
+      <c r="K9">
+        <v>51.91</v>
+      </c>
+      <c r="L9">
+        <v>51.48</v>
+      </c>
+      <c r="M9">
+        <v>51.03</v>
+      </c>
+      <c r="N9" s="6">
+        <v>48.44</v>
+      </c>
+      <c r="O9">
+        <v>50.91</v>
+      </c>
+      <c r="P9">
+        <v>50.85</v>
+      </c>
+      <c r="Q9">
+        <v>50.69</v>
+      </c>
+      <c r="R9" s="6">
+        <v>47.01</v>
+      </c>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C10">
+        <v>19.97</v>
+      </c>
+      <c r="D10">
+        <v>19.77</v>
+      </c>
+      <c r="E10">
+        <v>19.77</v>
+      </c>
+      <c r="F10" s="6">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="G10">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="H10">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="I10">
+        <v>19.32</v>
+      </c>
+      <c r="J10" s="6">
+        <v>25.55</v>
+      </c>
+      <c r="K10">
+        <v>23.26</v>
+      </c>
+      <c r="L10">
+        <v>23.12</v>
+      </c>
+      <c r="M10">
+        <v>22.57</v>
+      </c>
+      <c r="N10" s="6">
+        <v>25.79</v>
+      </c>
+      <c r="O10">
+        <v>25.45</v>
+      </c>
+      <c r="P10">
+        <v>25.43</v>
+      </c>
+      <c r="Q10">
+        <v>25.41</v>
+      </c>
+      <c r="R10" s="6">
+        <v>24.86</v>
+      </c>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6">
+        <v>36.96</v>
+      </c>
+      <c r="C11">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="D11">
+        <v>38.56</v>
+      </c>
+      <c r="E11">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="F11" s="6">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="G11">
+        <v>38.68</v>
+      </c>
+      <c r="H11">
+        <v>38.58</v>
+      </c>
+      <c r="I11">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="J11" s="6">
+        <v>42.76</v>
+      </c>
+      <c r="K11">
+        <v>43.38</v>
+      </c>
+      <c r="L11">
+        <v>42.64</v>
+      </c>
+      <c r="M11">
+        <v>42.46</v>
+      </c>
+      <c r="N11" s="6">
+        <v>49.46</v>
+      </c>
+      <c r="O11">
+        <v>44.02</v>
+      </c>
+      <c r="P11">
+        <v>44.53</v>
+      </c>
+      <c r="Q11">
+        <v>45.26</v>
+      </c>
+      <c r="R11" s="6">
+        <v>51.07</v>
+      </c>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6">
+        <v>14.17</v>
+      </c>
+      <c r="C12">
+        <v>15.86</v>
+      </c>
+      <c r="D12">
+        <v>15.87</v>
+      </c>
+      <c r="E12">
+        <v>15.86</v>
+      </c>
+      <c r="F12" s="6">
+        <v>14.16</v>
+      </c>
+      <c r="G12">
+        <v>15.88</v>
+      </c>
+      <c r="H12">
+        <v>15.87</v>
+      </c>
+      <c r="I12">
+        <v>15.87</v>
+      </c>
+      <c r="J12" s="6">
+        <v>16.02</v>
+      </c>
+      <c r="K12">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="L12">
+        <v>20.07</v>
+      </c>
+      <c r="M12">
+        <v>20.04</v>
+      </c>
+      <c r="N12" s="6">
+        <v>24.16</v>
+      </c>
+      <c r="O12">
+        <v>14.59</v>
+      </c>
+      <c r="P12">
+        <v>14.55</v>
+      </c>
+      <c r="Q12">
+        <v>14.51</v>
+      </c>
+      <c r="R12" s="6">
+        <v>23.66</v>
+      </c>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6">
+        <v>24.22</v>
+      </c>
+      <c r="C13">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="D13">
+        <v>36.07</v>
+      </c>
+      <c r="E13">
+        <v>35.43</v>
+      </c>
+      <c r="F13" s="6">
+        <v>24.27</v>
+      </c>
+      <c r="G13">
+        <v>36.6</v>
+      </c>
+      <c r="H13">
+        <v>36.21</v>
+      </c>
+      <c r="I13">
+        <v>35.54</v>
+      </c>
+      <c r="J13" s="6">
+        <v>27.25</v>
+      </c>
+      <c r="K13">
+        <v>42.91</v>
+      </c>
+      <c r="L13">
+        <v>42.61</v>
+      </c>
+      <c r="M13">
+        <v>42.32</v>
+      </c>
+      <c r="N13" s="6">
+        <v>31.24</v>
+      </c>
+      <c r="O13">
+        <v>25.53</v>
+      </c>
+      <c r="P13">
+        <v>27.39</v>
+      </c>
+      <c r="Q13">
+        <v>28.43</v>
+      </c>
+      <c r="R13" s="6">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>14.27</v>
+      </c>
+      <c r="C14">
+        <v>19.77</v>
+      </c>
+      <c r="D14">
+        <v>18.71</v>
+      </c>
+      <c r="E14">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>14.27</v>
+      </c>
+      <c r="G14">
+        <v>19.79</v>
+      </c>
+      <c r="H14">
+        <v>18.73</v>
+      </c>
+      <c r="I14">
+        <v>17.45</v>
+      </c>
+      <c r="J14" s="6">
+        <v>15.99</v>
+      </c>
+      <c r="K14">
+        <v>23.63</v>
+      </c>
+      <c r="L14">
+        <v>23.01</v>
+      </c>
+      <c r="M14">
+        <v>22.2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O14">
+        <v>16.61</v>
+      </c>
+      <c r="P14">
+        <v>17.77</v>
+      </c>
+      <c r="Q14">
+        <v>18.13</v>
+      </c>
+      <c r="R14" s="6">
+        <v>24.34</v>
+      </c>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6">
+        <v>30.31</v>
+      </c>
+      <c r="C15">
+        <v>33.86</v>
+      </c>
+      <c r="D15">
+        <v>33.56</v>
+      </c>
+      <c r="E15">
+        <v>33.4</v>
+      </c>
+      <c r="F15" s="6">
+        <v>30.31</v>
+      </c>
+      <c r="G15">
+        <v>33.82</v>
+      </c>
+      <c r="H15">
+        <v>33.54</v>
+      </c>
+      <c r="I15">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="J15" s="6">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="K15">
+        <v>37</v>
+      </c>
+      <c r="L15">
+        <v>36.54</v>
+      </c>
+      <c r="M15">
+        <v>36.14</v>
+      </c>
+      <c r="N15" s="6">
+        <v>40.14</v>
+      </c>
+      <c r="O15">
+        <v>35.18</v>
+      </c>
+      <c r="P15">
+        <v>35.47</v>
+      </c>
+      <c r="Q15">
+        <v>36.18</v>
+      </c>
+      <c r="R15" s="6">
+        <v>46.96</v>
+      </c>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C16">
+        <v>76.36</v>
+      </c>
+      <c r="D16">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="E16">
+        <v>74.87</v>
+      </c>
+      <c r="F16" s="6">
+        <v>66.44</v>
+      </c>
+      <c r="G16">
+        <v>76.36</v>
+      </c>
+      <c r="H16">
+        <v>75.75</v>
+      </c>
+      <c r="I16">
+        <v>74.930000000000007</v>
+      </c>
+      <c r="J16" s="6">
+        <v>74</v>
+      </c>
+      <c r="K16">
+        <v>85.34</v>
+      </c>
+      <c r="L16">
+        <v>84.65</v>
+      </c>
+      <c r="M16">
+        <v>84.06</v>
+      </c>
+      <c r="N16" s="6">
+        <v>74.38</v>
+      </c>
+      <c r="O16">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="P16">
+        <v>71.44</v>
+      </c>
+      <c r="Q16">
+        <v>71.72</v>
+      </c>
+      <c r="R16" s="6">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>49.88</v>
+      </c>
+      <c r="C17">
+        <v>56.55</v>
+      </c>
+      <c r="D17">
+        <v>53.71</v>
+      </c>
+      <c r="E17">
+        <v>51.11</v>
+      </c>
+      <c r="F17" s="6">
+        <v>48.05</v>
+      </c>
+      <c r="G17">
+        <v>54.95</v>
+      </c>
+      <c r="H17">
+        <v>52.1</v>
+      </c>
+      <c r="I17">
+        <v>49.44</v>
+      </c>
+      <c r="J17" s="6">
+        <v>58.42</v>
+      </c>
+      <c r="K17">
+        <v>60.68</v>
+      </c>
+      <c r="L17">
+        <v>60.43</v>
+      </c>
+      <c r="M17">
+        <v>60</v>
+      </c>
+      <c r="N17" s="6">
+        <v>58.4</v>
+      </c>
+      <c r="O17">
+        <v>58.2</v>
+      </c>
+      <c r="P17">
+        <v>58.15</v>
+      </c>
+      <c r="Q17">
+        <v>58.25</v>
+      </c>
+      <c r="R17" s="6">
+        <v>57.68</v>
+      </c>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6">
+        <v>29.93</v>
+      </c>
+      <c r="C18">
+        <v>36.72</v>
+      </c>
+      <c r="D18">
+        <v>35.42</v>
+      </c>
+      <c r="E18">
+        <v>34.86</v>
+      </c>
+      <c r="F18" s="6">
+        <v>30.45</v>
+      </c>
+      <c r="G18">
+        <v>36.39</v>
+      </c>
+      <c r="H18">
+        <v>35.08</v>
+      </c>
+      <c r="I18">
+        <v>34.5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>33.31</v>
+      </c>
+      <c r="K18">
+        <v>41.5</v>
+      </c>
+      <c r="L18">
+        <v>41.24</v>
+      </c>
+      <c r="M18">
+        <v>40.82</v>
+      </c>
+      <c r="N18" s="6">
+        <v>34.01</v>
+      </c>
+      <c r="O18">
+        <v>33.94</v>
+      </c>
+      <c r="P18">
+        <v>34.04</v>
+      </c>
+      <c r="Q18">
+        <v>33.99</v>
+      </c>
+      <c r="R18" s="6">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="C19">
+        <v>24.52</v>
+      </c>
+      <c r="D19">
+        <v>23.57</v>
+      </c>
+      <c r="E19">
+        <v>23.09</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>24.39</v>
+      </c>
+      <c r="H19">
+        <v>23.45</v>
+      </c>
+      <c r="I19">
+        <v>22.99</v>
+      </c>
+      <c r="J19" s="6">
+        <v>21.67</v>
+      </c>
+      <c r="K19">
+        <v>28.42</v>
+      </c>
+      <c r="L19">
+        <v>28.16</v>
+      </c>
+      <c r="M19">
+        <v>27.54</v>
+      </c>
+      <c r="N19" s="6">
+        <v>24.26</v>
+      </c>
+      <c r="O19">
+        <v>22.61</v>
+      </c>
+      <c r="P19">
+        <v>22.81</v>
+      </c>
+      <c r="Q19">
+        <v>22.98</v>
+      </c>
+      <c r="R19" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C20">
+        <v>44.23</v>
+      </c>
+      <c r="D20">
+        <v>43.39</v>
+      </c>
+      <c r="E20">
+        <v>42.68</v>
+      </c>
+      <c r="F20" s="6">
+        <v>34.54</v>
+      </c>
+      <c r="G20">
+        <v>44.33</v>
+      </c>
+      <c r="H20">
+        <v>43.48</v>
+      </c>
+      <c r="I20">
+        <v>42.66</v>
+      </c>
+      <c r="J20" s="6">
+        <v>39.07</v>
+      </c>
+      <c r="K20">
+        <v>47.07</v>
+      </c>
+      <c r="L20">
+        <v>46.78</v>
+      </c>
+      <c r="M20">
+        <v>46.44</v>
+      </c>
+      <c r="N20" s="6">
+        <v>40.58</v>
+      </c>
+      <c r="O20">
+        <v>39.06</v>
+      </c>
+      <c r="P20">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="Q20">
+        <v>39.92</v>
+      </c>
+      <c r="R20" s="6">
+        <v>42.31</v>
+      </c>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6">
+        <v>48.91</v>
+      </c>
+      <c r="C21">
+        <v>53.98</v>
+      </c>
+      <c r="D21">
+        <v>52.97</v>
+      </c>
+      <c r="E21">
+        <v>52</v>
+      </c>
+      <c r="F21" s="6">
+        <v>49.55</v>
+      </c>
+      <c r="G21">
+        <v>53.44</v>
+      </c>
+      <c r="H21">
+        <v>52.42</v>
+      </c>
+      <c r="I21">
+        <v>51.42</v>
+      </c>
+      <c r="J21" s="6">
+        <v>53.12</v>
+      </c>
+      <c r="K21">
+        <v>59.82</v>
+      </c>
+      <c r="L21">
+        <v>58.69</v>
+      </c>
+      <c r="M21">
+        <v>57.79</v>
+      </c>
+      <c r="N21" s="6">
+        <v>54.21</v>
+      </c>
+      <c r="O21">
+        <v>54.38</v>
+      </c>
+      <c r="P21">
+        <v>54.8</v>
+      </c>
+      <c r="Q21">
+        <v>55.42</v>
+      </c>
+      <c r="R21" s="6">
+        <v>59.48</v>
+      </c>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="C22">
+        <v>43.36</v>
+      </c>
+      <c r="D22">
+        <v>41.72</v>
+      </c>
+      <c r="E22">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="F22" s="6">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="G22">
+        <v>43.42</v>
+      </c>
+      <c r="H22">
+        <v>41.75</v>
+      </c>
+      <c r="I22">
+        <v>40.76</v>
+      </c>
+      <c r="J22" s="6">
+        <v>37.82</v>
+      </c>
+      <c r="K22">
+        <v>46.62</v>
+      </c>
+      <c r="L22">
+        <v>46.24</v>
+      </c>
+      <c r="M22">
+        <v>45.75</v>
+      </c>
+      <c r="N22" s="6">
+        <v>38.46</v>
+      </c>
+      <c r="O22">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="P22">
+        <v>38.11</v>
+      </c>
+      <c r="Q22">
+        <v>38.64</v>
+      </c>
+      <c r="R22" s="6">
+        <v>41.24</v>
+      </c>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22.18</v>
+      </c>
+      <c r="C23">
+        <v>27.76</v>
+      </c>
+      <c r="D23">
+        <v>26.73</v>
+      </c>
+      <c r="E23">
+        <v>26.17</v>
+      </c>
+      <c r="F23" s="6">
+        <v>23.02</v>
+      </c>
+      <c r="G23">
+        <v>27.5</v>
+      </c>
+      <c r="H23">
+        <v>26.49</v>
+      </c>
+      <c r="I23">
+        <v>25.94</v>
+      </c>
+      <c r="J23" s="6">
+        <v>25.32</v>
+      </c>
+      <c r="K23">
+        <v>32.47</v>
+      </c>
+      <c r="L23">
+        <v>32.17</v>
+      </c>
+      <c r="M23">
+        <v>31.46</v>
+      </c>
+      <c r="N23" s="6">
+        <v>27.53</v>
+      </c>
+      <c r="O23">
+        <v>26.24</v>
+      </c>
+      <c r="P23">
+        <v>26.34</v>
+      </c>
+      <c r="Q23">
+        <v>26.47</v>
+      </c>
+      <c r="R23" s="6">
+        <v>29.37</v>
+      </c>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6">
+        <v>31.77</v>
+      </c>
+      <c r="C24">
+        <v>41.23</v>
+      </c>
+      <c r="D24">
+        <v>38.93</v>
+      </c>
+      <c r="E24">
+        <v>37.69</v>
+      </c>
+      <c r="F24" s="6">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="G24">
+        <v>40.57</v>
+      </c>
+      <c r="H24">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="I24">
+        <v>37.11</v>
+      </c>
+      <c r="J24" s="6">
+        <v>34.51</v>
+      </c>
+      <c r="K24">
+        <v>47.37</v>
+      </c>
+      <c r="L24">
+        <v>46.5</v>
+      </c>
+      <c r="M24">
+        <v>45.72</v>
+      </c>
+      <c r="N24" s="6">
+        <v>33.93</v>
+      </c>
+      <c r="O24">
+        <v>33.72</v>
+      </c>
+      <c r="P24">
+        <v>34.67</v>
+      </c>
+      <c r="Q24">
+        <v>35.07</v>
+      </c>
+      <c r="R24" s="6">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6">
+        <v>34.78</v>
+      </c>
+      <c r="C25">
+        <v>41.19</v>
+      </c>
+      <c r="D25">
+        <v>39.79</v>
+      </c>
+      <c r="E25">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="F25" s="6">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="G25">
+        <v>40.61</v>
+      </c>
+      <c r="H25">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I25">
+        <v>38.17</v>
+      </c>
+      <c r="J25" s="6">
+        <v>37.69</v>
+      </c>
+      <c r="K25">
+        <v>48.1</v>
+      </c>
+      <c r="L25">
+        <v>46.08</v>
+      </c>
+      <c r="M25">
+        <v>44.55</v>
+      </c>
+      <c r="N25" s="6">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="O25">
+        <v>38.46</v>
+      </c>
+      <c r="P25">
+        <v>39.04</v>
+      </c>
+      <c r="Q25">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="R25" s="6">
+        <v>43.32</v>
+      </c>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6">
+        <v>26.82</v>
+      </c>
+      <c r="C26">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D26">
+        <v>31.1</v>
+      </c>
+      <c r="E26">
+        <v>30.31</v>
+      </c>
+      <c r="F26" s="6">
+        <v>27.65</v>
+      </c>
+      <c r="G26">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="H26">
+        <v>30.93</v>
+      </c>
+      <c r="I26">
+        <v>30.14</v>
+      </c>
+      <c r="J26" s="6">
+        <v>30.93</v>
+      </c>
+      <c r="K26">
+        <v>36.9</v>
+      </c>
+      <c r="L26">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="M26">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="N26" s="6">
+        <v>33.06</v>
+      </c>
+      <c r="O26">
+        <v>31.92</v>
+      </c>
+      <c r="P26">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="Q26">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="R26" s="6">
+        <v>35.61</v>
+      </c>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6">
+        <v>43.81</v>
+      </c>
+      <c r="C27">
+        <v>52.1</v>
+      </c>
+      <c r="D27">
+        <v>51.2</v>
+      </c>
+      <c r="E27">
+        <v>50.49</v>
+      </c>
+      <c r="F27" s="6">
+        <v>44.17</v>
+      </c>
+      <c r="G27">
+        <v>51.62</v>
+      </c>
+      <c r="H27">
+        <v>50.69</v>
+      </c>
+      <c r="I27">
+        <v>50.03</v>
+      </c>
+      <c r="J27" s="6">
+        <v>47.41</v>
+      </c>
+      <c r="K27">
+        <v>55.13</v>
+      </c>
+      <c r="L27">
+        <v>54.7</v>
+      </c>
+      <c r="M27">
+        <v>53.65</v>
+      </c>
+      <c r="N27" s="6">
+        <v>48.67</v>
+      </c>
+      <c r="O27">
+        <v>47.81</v>
+      </c>
+      <c r="P27">
+        <v>48.01</v>
+      </c>
+      <c r="Q27">
+        <v>48.16</v>
+      </c>
+      <c r="R27" s="6">
+        <v>49.99</v>
+      </c>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6">
+        <v>37.99</v>
+      </c>
+      <c r="C28">
+        <v>48.31</v>
+      </c>
+      <c r="D28">
+        <v>47.68</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
+      <c r="F28" s="6">
+        <v>40.93</v>
+      </c>
+      <c r="G28">
+        <v>47.69</v>
+      </c>
+      <c r="H28">
+        <v>47.06</v>
+      </c>
+      <c r="I28">
+        <v>46.36</v>
+      </c>
+      <c r="J28" s="6">
+        <v>42.46</v>
+      </c>
+      <c r="K28">
+        <v>53.94</v>
+      </c>
+      <c r="L28">
+        <v>53.28</v>
+      </c>
+      <c r="M28">
+        <v>52.74</v>
+      </c>
+      <c r="N28" s="6">
+        <v>43.02</v>
+      </c>
+      <c r="O28">
+        <v>41.89</v>
+      </c>
+      <c r="P28">
+        <v>42.3</v>
+      </c>
+      <c r="Q28">
+        <v>42.81</v>
+      </c>
+      <c r="R28" s="6">
+        <v>46.16</v>
+      </c>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6">
+        <v>37.15</v>
+      </c>
+      <c r="C29">
+        <v>46.45</v>
+      </c>
+      <c r="D29">
+        <v>45.6</v>
+      </c>
+      <c r="E29">
+        <v>44.93</v>
+      </c>
+      <c r="F29" s="6">
+        <v>37.65</v>
+      </c>
+      <c r="G29">
+        <v>46.13</v>
+      </c>
+      <c r="H29">
+        <v>45.3</v>
+      </c>
+      <c r="I29">
+        <v>44.63</v>
+      </c>
+      <c r="J29" s="6">
+        <v>40.36</v>
+      </c>
+      <c r="K29">
+        <v>48.98</v>
+      </c>
+      <c r="L29">
+        <v>48.64</v>
+      </c>
+      <c r="M29">
+        <v>48.17</v>
+      </c>
+      <c r="N29" s="6">
+        <v>41.28</v>
+      </c>
+      <c r="O29">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="P29">
+        <v>40.35</v>
+      </c>
+      <c r="Q29">
+        <v>40.86</v>
+      </c>
+      <c r="R29" s="6">
+        <v>42.73</v>
+      </c>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(B3:B17)</f>
+        <v>37.932000000000002</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:R30" si="0">AVERAGE(C3:C17)</f>
+        <v>43.454666666666661</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>42.832666666666668</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>42.096666666666664</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>37.670666666666662</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>43.184000000000012</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>42.570000000000007</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>41.82533333333334</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>41.612666666666662</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>47.967999999999996</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>47.045999999999999</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>46.567999999999998</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>44.602666666666671</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>41.178666666666672</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>41.485333333333323</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>41.706666666666671</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>46.531999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(B18:B29)</f>
+        <v>33.514166666666661</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:R31" si="1">AVERAGE(C18:C29)</f>
+        <v>41.012500000000003</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>39.841666666666669</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>39.059999999999995</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>34.159166666666664</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>40.68416666666667</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>39.51</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>38.725833333333334</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>36.972500000000004</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>45.526666666666664</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>44.860000000000007</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>44.113333333333337</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>38.064999999999998</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>37.338333333333338</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>37.660833333333336</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>38.024166666666666</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>40.6875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(B3:B29)</f>
+        <v>35.968518518518508</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:R32" si="2">AVERAGE(C3:C29)</f>
+        <v>42.369259259259252</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>41.50333333333333</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>40.747037037037032</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>36.109999999999992</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>42.072962962962976</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>41.21</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>40.44777777777778</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>39.550370370370366</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>46.882962962962978</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>46.074444444444445</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>45.477037037037043</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>41.697037037037042</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>39.471851851851859</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>39.78555555555554</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>40.069999999999993</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>43.934444444444445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f>K32/$J32</f>
+        <v>1.1853988350532847</v>
+      </c>
+      <c r="C37">
+        <f>L32/$J32</f>
+        <v>1.1649560803850694</v>
+      </c>
+      <c r="D37">
+        <f>M32/$J32</f>
+        <v>1.1498511040773138</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f>K32/$R$32</f>
+        <v>1.0671117742764897</v>
+      </c>
+      <c r="H37">
+        <f>L32/$R$32</f>
+        <v>1.0487089350294632</v>
+      </c>
+      <c r="I37">
+        <f>M32/$R$32</f>
+        <v>1.0351112347521139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f>C32/$B32</f>
+        <v>1.1779539720949392</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:D38" si="3">D32/$B32</f>
+        <v>1.1538794213046391</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>1.1328528033774392</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>C32/$R$32</f>
+        <v>0.96437453107744686</v>
+      </c>
+      <c r="H38">
+        <f>D32/$R$32</f>
+        <v>0.94466503123340317</v>
+      </c>
+      <c r="I38">
+        <f>E32/$R$32</f>
+        <v>0.92745083162624431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <f>G32/$F32</f>
+        <v>1.1651332861523951</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:D39" si="4">H32/$F32</f>
+        <v>1.1412351149266133</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>1.1201267731314812</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>G32/$R$32</f>
+        <v>0.95763047638316379</v>
+      </c>
+      <c r="H39">
+        <f>H32/$R$32</f>
+        <v>0.93798841708606262</v>
+      </c>
+      <c r="I39">
+        <f>I32/$R$32</f>
+        <v>0.92063933638501816</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <f>O32/$N32</f>
+        <v>0.94663445310973338</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:D40" si="5">P32/$N32</f>
+        <v>0.95415785827219224</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>0.96097955268160073</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f>O32/$R$32</f>
+        <v>0.89842610623572172</v>
+      </c>
+      <c r="H40">
+        <f>P32/$R$32</f>
+        <v>0.90556637414329388</v>
+      </c>
+      <c r="I40">
+        <f>Q32/$R$32</f>
+        <v>0.91204066664980632</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S2:S29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>